--- a/Code/Results/Cases/Case_3_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_207/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.514646408507531</v>
+        <v>1.388880320667681</v>
       </c>
       <c r="C2">
-        <v>0.6332076143576444</v>
+        <v>0.26550508395664</v>
       </c>
       <c r="D2">
-        <v>0.02373624259410789</v>
+        <v>0.02145684642999157</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7841306520534914</v>
+        <v>0.8335137090368221</v>
       </c>
       <c r="G2">
-        <v>0.7032345464922685</v>
+        <v>0.6825438749194745</v>
       </c>
       <c r="H2">
-        <v>0.4413714047674802</v>
+        <v>0.752941430975028</v>
       </c>
       <c r="I2">
-        <v>0.3641695914483307</v>
+        <v>0.6861691456611112</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4091701235444845</v>
+        <v>0.3013015632718208</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.048990243046546</v>
+        <v>1.251468235563209</v>
       </c>
       <c r="C3">
-        <v>0.5631571661992893</v>
+        <v>0.2427065503185588</v>
       </c>
       <c r="D3">
-        <v>0.02283886442712912</v>
+        <v>0.02110144923565471</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7126504001242751</v>
+        <v>0.8252597966965141</v>
       </c>
       <c r="G3">
-        <v>0.637133585609476</v>
+        <v>0.6750462911114425</v>
       </c>
       <c r="H3">
-        <v>0.4197197139513236</v>
+        <v>0.7556470654598684</v>
       </c>
       <c r="I3">
-        <v>0.357734980513186</v>
+        <v>0.6936146254535061</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3599111115128011</v>
+        <v>0.2899558975436491</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.764510253100582</v>
+        <v>1.167230185273581</v>
       </c>
       <c r="C4">
-        <v>0.5202274943296175</v>
+        <v>0.2286129900187461</v>
       </c>
       <c r="D4">
-        <v>0.02230510447911627</v>
+        <v>0.02088752658879756</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6710322306249026</v>
+        <v>0.8209591915412631</v>
       </c>
       <c r="G4">
-        <v>0.5989175095390493</v>
+        <v>0.6711692591488685</v>
       </c>
       <c r="H4">
-        <v>0.4077614442143016</v>
+        <v>0.757863823960605</v>
       </c>
       <c r="I4">
-        <v>0.3553388763426781</v>
+        <v>0.6987925255703544</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3302135074042098</v>
+        <v>0.2831702641913552</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.648869556523721</v>
+        <v>1.13293725530508</v>
       </c>
       <c r="C5">
-        <v>0.502743724550669</v>
+        <v>0.2228459776758882</v>
       </c>
       <c r="D5">
-        <v>0.02209156086783182</v>
+        <v>0.02080144232597547</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6545974572412803</v>
+        <v>0.8193987895404717</v>
       </c>
       <c r="G5">
-        <v>0.5838907099981014</v>
+        <v>0.6697710005544195</v>
       </c>
       <c r="H5">
-        <v>0.4032015304066903</v>
+        <v>0.7589065053231963</v>
       </c>
       <c r="I5">
-        <v>0.3547282821157083</v>
+        <v>0.7010545096118932</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3182349482163858</v>
+        <v>0.2804504044245277</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.629682805599714</v>
+        <v>1.127245075305723</v>
       </c>
       <c r="C6">
-        <v>0.4998409070567504</v>
+        <v>0.2218869386726396</v>
       </c>
       <c r="D6">
-        <v>0.02205633182863309</v>
+        <v>0.02078721433820263</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6518988917152697</v>
+        <v>0.8191512660778599</v>
       </c>
       <c r="G6">
-        <v>0.5814271482995252</v>
+        <v>0.6695497628045928</v>
       </c>
       <c r="H6">
-        <v>0.4024626383500731</v>
+        <v>0.7590880470517192</v>
       </c>
       <c r="I6">
-        <v>0.3546482852284889</v>
+        <v>0.7014392722923262</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3162529754732333</v>
+        <v>0.2800015098232791</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.762949612652051</v>
+        <v>1.16676755649604</v>
       </c>
       <c r="C7">
-        <v>0.5199916726801064</v>
+        <v>0.2285353101087537</v>
       </c>
       <c r="D7">
-        <v>0.02230220894372437</v>
+        <v>0.02088636119352927</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6708085186758552</v>
+        <v>0.8209373705826195</v>
       </c>
       <c r="G7">
-        <v>0.5987127028371901</v>
+        <v>0.6711496675573443</v>
       </c>
       <c r="H7">
-        <v>0.4076987085608721</v>
+        <v>0.75787732223273</v>
       </c>
       <c r="I7">
-        <v>0.3553291924125617</v>
+        <v>0.6988224169458697</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.330051478639632</v>
+        <v>0.2831333997375367</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.35374424020489</v>
+        <v>1.341473578731325</v>
       </c>
       <c r="C8">
-        <v>0.6090309408834003</v>
+        <v>0.2576639892168089</v>
       </c>
       <c r="D8">
-        <v>0.02342301654491052</v>
+        <v>0.02133342116863091</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7589841960163</v>
+        <v>0.8305080009408243</v>
       </c>
       <c r="G8">
-        <v>0.6799201926250618</v>
+        <v>0.6798072990973765</v>
       </c>
       <c r="H8">
-        <v>0.4336144400367345</v>
+        <v>0.7537588312873282</v>
       </c>
       <c r="I8">
-        <v>0.3616126031287337</v>
+        <v>0.6886101854777849</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3920630616702425</v>
+        <v>0.2973520274271806</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.527340970676164</v>
+        <v>1.685097783977085</v>
       </c>
       <c r="C9">
-        <v>0.7847902908715696</v>
+        <v>0.3140259539405008</v>
       </c>
       <c r="D9">
-        <v>0.02577653946436342</v>
+        <v>0.02224373553696068</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9521674515191307</v>
+        <v>0.855403764358357</v>
       </c>
       <c r="G9">
-        <v>0.860389651799224</v>
+        <v>0.7025975905788471</v>
       </c>
       <c r="H9">
-        <v>0.496147136601067</v>
+        <v>0.7501065158696321</v>
       </c>
       <c r="I9">
-        <v>0.3874940058145881</v>
+        <v>0.673418851984728</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5187130840223517</v>
+        <v>0.3266738463629366</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.404421237725103</v>
+        <v>1.938167138178528</v>
       </c>
       <c r="C10">
-        <v>0.9154114214081233</v>
+        <v>0.3549707569273153</v>
       </c>
       <c r="D10">
-        <v>0.02763084933867432</v>
+        <v>0.02293258260597852</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.10988002017227</v>
+        <v>0.8774881398252603</v>
       </c>
       <c r="G10">
-        <v>1.009591386241055</v>
+        <v>0.7229545887272479</v>
       </c>
       <c r="H10">
-        <v>0.5509207266500624</v>
+        <v>0.7501441516080121</v>
       </c>
       <c r="I10">
-        <v>0.4166298059503362</v>
+        <v>0.6652383202846366</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6159081132420283</v>
+        <v>0.3491046155645847</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.808063618057133</v>
+        <v>2.053425708417819</v>
       </c>
       <c r="C11">
-        <v>0.9753561605261893</v>
+        <v>0.3734968017460574</v>
       </c>
       <c r="D11">
-        <v>0.02850960015966564</v>
+        <v>0.02325022523000797</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.185903548112179</v>
+        <v>0.8883712524891649</v>
       </c>
       <c r="G11">
-        <v>1.081986654216536</v>
+        <v>0.7330151340279372</v>
       </c>
       <c r="H11">
-        <v>0.578176505076641</v>
+        <v>0.7507573682163979</v>
       </c>
       <c r="I11">
-        <v>0.4325420596277212</v>
+        <v>0.6621711343178021</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6612900176764356</v>
+        <v>0.3595042783678792</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.961712067841745</v>
+        <v>2.097090023674866</v>
       </c>
       <c r="C12">
-        <v>0.9981494664012587</v>
+        <v>0.3804976766184041</v>
       </c>
       <c r="D12">
-        <v>0.02884820172288727</v>
+        <v>0.02337111610850684</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.215386103108443</v>
+        <v>0.8926136946955694</v>
       </c>
       <c r="G12">
-        <v>1.110136331791409</v>
+        <v>0.7369410111286356</v>
       </c>
       <c r="H12">
-        <v>0.5888731496273465</v>
+        <v>0.7510757047997458</v>
       </c>
       <c r="I12">
-        <v>0.4389928288550564</v>
+        <v>0.6611043229506421</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6786673720470304</v>
+        <v>0.3634706628824205</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.928583448420056</v>
+        <v>2.087685332222009</v>
       </c>
       <c r="C13">
-        <v>0.9932360503622704</v>
+        <v>0.3789905620072886</v>
       </c>
       <c r="D13">
-        <v>0.02877500471663907</v>
+        <v>0.02334505326293623</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.209004295514973</v>
+        <v>0.8916946020117251</v>
       </c>
       <c r="G13">
-        <v>1.10403965241585</v>
+        <v>0.7360903188263705</v>
       </c>
       <c r="H13">
-        <v>0.5865520692462951</v>
+        <v>0.7510033084035115</v>
       </c>
       <c r="I13">
-        <v>0.4375839009320259</v>
+        <v>0.6613298601087436</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6749158847351282</v>
+        <v>0.3626151725686952</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.820687593951163</v>
+        <v>2.057017635806972</v>
       </c>
       <c r="C14">
-        <v>0.9772293941016414</v>
+        <v>0.3740730601821269</v>
       </c>
       <c r="D14">
-        <v>0.02853733530533731</v>
+        <v>0.02326015889158839</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.18831470474683</v>
+        <v>0.8887178456432565</v>
       </c>
       <c r="G14">
-        <v>1.084287293876059</v>
+        <v>0.7333357837137839</v>
       </c>
       <c r="H14">
-        <v>0.5790487606119257</v>
+        <v>0.7507818295547821</v>
       </c>
       <c r="I14">
-        <v>0.4330639861752914</v>
+        <v>0.6620814664567902</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6627156625284414</v>
+        <v>0.3598300282805837</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.75470621567689</v>
+        <v>2.038235147828345</v>
       </c>
       <c r="C15">
-        <v>0.9674376072916004</v>
+        <v>0.371059050508876</v>
       </c>
       <c r="D15">
-        <v>0.02839254094622845</v>
+        <v>0.02320823735490052</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.17573460071425</v>
+        <v>0.8869103129431579</v>
       </c>
       <c r="G15">
-        <v>1.072286811971026</v>
+        <v>0.731663713087741</v>
       </c>
       <c r="H15">
-        <v>0.5745028963639527</v>
+        <v>0.7506573954502613</v>
       </c>
       <c r="I15">
-        <v>0.430352123035199</v>
+        <v>0.6625541929556178</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6552684707357628</v>
+        <v>0.35812773009377</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.37814660281424</v>
+        <v>1.930637356713873</v>
       </c>
       <c r="C16">
-        <v>0.9115059499259814</v>
+        <v>0.3537580109816645</v>
       </c>
       <c r="D16">
-        <v>0.02757419330464472</v>
+        <v>0.02291190928185571</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.105004362667557</v>
+        <v>0.8767938195302634</v>
       </c>
       <c r="G16">
-        <v>1.004958244175072</v>
+        <v>0.722313303222009</v>
       </c>
       <c r="H16">
-        <v>0.5491898171569574</v>
+        <v>0.7501161061864536</v>
       </c>
       <c r="I16">
-        <v>0.4156469606357689</v>
+        <v>0.6654519827193184</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.612967815268874</v>
+        <v>0.3484289217697807</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.148418893754751</v>
+        <v>1.864663602253529</v>
       </c>
       <c r="C17">
-        <v>0.8773403097679591</v>
+        <v>0.3431186659603895</v>
       </c>
       <c r="D17">
-        <v>0.02708170131300491</v>
+        <v>0.02273121169369219</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.062763218796704</v>
+        <v>0.8708026551761634</v>
       </c>
       <c r="G17">
-        <v>0.964870348530269</v>
+        <v>0.7167828379252086</v>
       </c>
       <c r="H17">
-        <v>0.5342867260685438</v>
+        <v>0.7499370063046342</v>
       </c>
       <c r="I17">
-        <v>0.4073358226745256</v>
+        <v>0.6673976570735789</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5873332919331773</v>
+        <v>0.3425292370761497</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.016715215692955</v>
+        <v>1.826730117300087</v>
       </c>
       <c r="C18">
-        <v>0.8577373136664335</v>
+        <v>0.3369897976633638</v>
       </c>
       <c r="D18">
-        <v>0.02680169544721167</v>
+        <v>0.02262768284839822</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.038864852272837</v>
+        <v>0.8674354068715786</v>
       </c>
       <c r="G18">
-        <v>0.942232977260403</v>
+        <v>0.7136770974865527</v>
       </c>
       <c r="H18">
-        <v>0.525932450624822</v>
+        <v>0.7498900757727824</v>
       </c>
       <c r="I18">
-        <v>0.4028028680234925</v>
+        <v>0.6685782963074232</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.572697277709139</v>
+        <v>0.3391543171963178</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.972192697336482</v>
+        <v>1.813888738247442</v>
       </c>
       <c r="C19">
-        <v>0.8511078302395845</v>
+        <v>0.3349130590328571</v>
       </c>
       <c r="D19">
-        <v>0.02670742871674392</v>
+        <v>0.02259269937539798</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.030839297935628</v>
+        <v>0.8663088054202177</v>
       </c>
       <c r="G19">
-        <v>0.9346380655682935</v>
+        <v>0.7126384349895147</v>
       </c>
       <c r="H19">
-        <v>0.5231400802295667</v>
+        <v>0.7498838058235862</v>
       </c>
       <c r="I19">
-        <v>0.401309340622241</v>
+        <v>0.6689885916831031</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5677596706663195</v>
+        <v>0.3380147883258928</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.172828446806932</v>
+        <v>1.871685297213503</v>
       </c>
       <c r="C20">
-        <v>0.8809721894771201</v>
+        <v>0.3442522162933699</v>
       </c>
       <c r="D20">
-        <v>0.02713378499743868</v>
+        <v>0.02275040555654684</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.067218163419241</v>
+        <v>0.8714322719904857</v>
       </c>
       <c r="G20">
-        <v>0.969093705390506</v>
+        <v>0.717363770554428</v>
       </c>
       <c r="H20">
-        <v>0.5358503953785174</v>
+        <v>0.7499502644904652</v>
       </c>
       <c r="I20">
-        <v>0.408194656531343</v>
+        <v>0.667184163391461</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5900507550128964</v>
+        <v>0.3431553611601288</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.852356476828732</v>
+        <v>2.066024991527968</v>
       </c>
       <c r="C21">
-        <v>0.9819282443034751</v>
+        <v>0.3755178454567272</v>
       </c>
       <c r="D21">
-        <v>0.02860697944194612</v>
+        <v>0.02328507803797919</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.194372233304577</v>
+        <v>0.8895888933704299</v>
       </c>
       <c r="G21">
-        <v>1.090068368151492</v>
+        <v>0.7341416957670646</v>
       </c>
       <c r="H21">
-        <v>0.5812421416943039</v>
+        <v>0.7508445426103663</v>
       </c>
       <c r="I21">
-        <v>0.4343796923899887</v>
+        <v>0.6618581275132556</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6662937405343854</v>
+        <v>0.3606473249276547</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.301187447741995</v>
+        <v>2.193143922909371</v>
       </c>
       <c r="C22">
-        <v>1.048463942352328</v>
+        <v>0.3958669407365392</v>
       </c>
       <c r="D22">
-        <v>0.02960426256129978</v>
+        <v>0.02363804865345998</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.281563127036023</v>
+        <v>0.9021624189332726</v>
       </c>
       <c r="G22">
-        <v>1.173463378435258</v>
+        <v>0.7457846708521458</v>
       </c>
       <c r="H22">
-        <v>0.6131180441340405</v>
+        <v>0.7519311959102595</v>
       </c>
       <c r="I22">
-        <v>0.4539944222628094</v>
+        <v>0.6589293143982289</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.717256452022184</v>
+        <v>0.3722440924697707</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.061159931732675</v>
+        <v>2.125288771044154</v>
       </c>
       <c r="C23">
-        <v>1.012895280508928</v>
+        <v>0.3850140576483057</v>
       </c>
       <c r="D23">
-        <v>0.02906855594873292</v>
+        <v>0.02344934143415855</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.234625413681314</v>
+        <v>0.8953866888350035</v>
       </c>
       <c r="G23">
-        <v>1.128527193023785</v>
+        <v>0.739508221813594</v>
       </c>
       <c r="H23">
-        <v>0.5958890497221319</v>
+        <v>0.7513051433037106</v>
       </c>
       <c r="I23">
-        <v>0.4432814368828915</v>
+        <v>0.6604417667273808</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6899442669807598</v>
+        <v>0.3660395694150509</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.161791745447147</v>
+        <v>1.868510802213621</v>
       </c>
       <c r="C24">
-        <v>0.8793300956380961</v>
+        <v>0.3437397760767453</v>
       </c>
       <c r="D24">
-        <v>0.02711022825820564</v>
+        <v>0.02274172689926601</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.065202884540554</v>
+        <v>0.8711473819789717</v>
       </c>
       <c r="G24">
-        <v>0.9671830559494623</v>
+        <v>0.7171009011277789</v>
       </c>
       <c r="H24">
-        <v>0.5351427977310408</v>
+        <v>0.7499440959463755</v>
       </c>
       <c r="I24">
-        <v>0.4078056170977078</v>
+        <v>0.6672804906655045</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5888218752563432</v>
+        <v>0.3428722378701394</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.207687873361294</v>
+        <v>1.592030339315158</v>
       </c>
       <c r="C25">
-        <v>0.7370425940962377</v>
+        <v>0.2988600037775768</v>
       </c>
       <c r="D25">
-        <v>0.02512030086731798</v>
+        <v>0.02199392076740736</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8974012757643948</v>
+        <v>0.8480068078429781</v>
       </c>
       <c r="G25">
-        <v>0.8089368148221325</v>
+        <v>0.6958027524671877</v>
       </c>
       <c r="H25">
-        <v>0.477811272428454</v>
+        <v>0.7506184660874453</v>
       </c>
       <c r="I25">
-        <v>0.3788593704968832</v>
+        <v>0.6770074897044509</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4838061113827763</v>
+        <v>0.3185863503169202</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_207/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.388880320667681</v>
+        <v>3.514646408507701</v>
       </c>
       <c r="C2">
-        <v>0.26550508395664</v>
+        <v>0.6332076143580139</v>
       </c>
       <c r="D2">
-        <v>0.02145684642999157</v>
+        <v>0.02373624259422868</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8335137090368221</v>
+        <v>0.7841306520534772</v>
       </c>
       <c r="G2">
-        <v>0.6825438749194745</v>
+        <v>0.70323454649224</v>
       </c>
       <c r="H2">
-        <v>0.752941430975028</v>
+        <v>0.4413714047674802</v>
       </c>
       <c r="I2">
-        <v>0.6861691456611112</v>
+        <v>0.3641695914483165</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3013015632718208</v>
+        <v>0.4091701235445271</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.251468235563209</v>
+        <v>3.048990243046603</v>
       </c>
       <c r="C3">
-        <v>0.2427065503185588</v>
+        <v>0.5631571661990336</v>
       </c>
       <c r="D3">
-        <v>0.02110144923565471</v>
+        <v>0.02283886442713623</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8252597966965141</v>
+        <v>0.7126504001242751</v>
       </c>
       <c r="G3">
-        <v>0.6750462911114425</v>
+        <v>0.6371335856094476</v>
       </c>
       <c r="H3">
-        <v>0.7556470654598684</v>
+        <v>0.4197197139513378</v>
       </c>
       <c r="I3">
-        <v>0.6936146254535061</v>
+        <v>0.3577349805131789</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2899558975436491</v>
+        <v>0.3599111115129574</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.167230185273581</v>
+        <v>2.764510253100639</v>
       </c>
       <c r="C4">
-        <v>0.2286129900187461</v>
+        <v>0.5202274943296459</v>
       </c>
       <c r="D4">
-        <v>0.02088752658879756</v>
+        <v>0.02230510447904166</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8209591915412631</v>
+        <v>0.6710322306249239</v>
       </c>
       <c r="G4">
-        <v>0.6711692591488685</v>
+        <v>0.5989175095390777</v>
       </c>
       <c r="H4">
-        <v>0.757863823960605</v>
+        <v>0.4077614442144153</v>
       </c>
       <c r="I4">
-        <v>0.6987925255703544</v>
+        <v>0.3553388763426817</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2831702641913552</v>
+        <v>0.3302135074041814</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.13293725530508</v>
+        <v>2.648869556523891</v>
       </c>
       <c r="C5">
-        <v>0.2228459776758882</v>
+        <v>0.5027437245508395</v>
       </c>
       <c r="D5">
-        <v>0.02080144232597547</v>
+        <v>0.02209156086782116</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8193987895404717</v>
+        <v>0.6545974572412803</v>
       </c>
       <c r="G5">
-        <v>0.6697710005544195</v>
+        <v>0.5838907099981441</v>
       </c>
       <c r="H5">
-        <v>0.7589065053231963</v>
+        <v>0.4032015304067045</v>
       </c>
       <c r="I5">
-        <v>0.7010545096118932</v>
+        <v>0.3547282821157047</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2804504044245277</v>
+        <v>0.3182349482164284</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.127245075305723</v>
+        <v>2.629682805599828</v>
       </c>
       <c r="C6">
-        <v>0.2218869386726396</v>
+        <v>0.4998409070566083</v>
       </c>
       <c r="D6">
-        <v>0.02078721433820263</v>
+        <v>0.02205633182870059</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8191512660778599</v>
+        <v>0.651898891715291</v>
       </c>
       <c r="G6">
-        <v>0.6695497628045928</v>
+        <v>0.5814271482995395</v>
       </c>
       <c r="H6">
-        <v>0.7590880470517192</v>
+        <v>0.4024626383500731</v>
       </c>
       <c r="I6">
-        <v>0.7014392722923262</v>
+        <v>0.354648285228496</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2800015098232791</v>
+        <v>0.3162529754731622</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.16676755649604</v>
+        <v>2.762949612652335</v>
       </c>
       <c r="C7">
-        <v>0.2285353101087537</v>
+        <v>0.5199916726805895</v>
       </c>
       <c r="D7">
-        <v>0.02088636119352927</v>
+        <v>0.02230220894366397</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8209373705826195</v>
+        <v>0.6708085186758694</v>
       </c>
       <c r="G7">
-        <v>0.6711496675573443</v>
+        <v>0.5987127028371901</v>
       </c>
       <c r="H7">
-        <v>0.75787732223273</v>
+        <v>0.4076987085608721</v>
       </c>
       <c r="I7">
-        <v>0.6988224169458697</v>
+        <v>0.3553291924125794</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2831333997375367</v>
+        <v>0.3300514786396178</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.341473578731325</v>
+        <v>3.35374424020489</v>
       </c>
       <c r="C8">
-        <v>0.2576639892168089</v>
+        <v>0.6090309408834287</v>
       </c>
       <c r="D8">
-        <v>0.02133342116863091</v>
+        <v>0.02342301654484658</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8305080009408243</v>
+        <v>0.7589841960163</v>
       </c>
       <c r="G8">
-        <v>0.6798072990973765</v>
+        <v>0.6799201926250049</v>
       </c>
       <c r="H8">
-        <v>0.7537588312873282</v>
+        <v>0.4336144400367345</v>
       </c>
       <c r="I8">
-        <v>0.6886101854777849</v>
+        <v>0.3616126031287337</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2973520274271806</v>
+        <v>0.3920630616701999</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.685097783977085</v>
+        <v>4.527340970676221</v>
       </c>
       <c r="C9">
-        <v>0.3140259539405008</v>
+        <v>0.784790290871797</v>
       </c>
       <c r="D9">
-        <v>0.02224373553696068</v>
+        <v>0.02577653946442027</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.855403764358357</v>
+        <v>0.9521674515191307</v>
       </c>
       <c r="G9">
-        <v>0.7025975905788471</v>
+        <v>0.8603896517991672</v>
       </c>
       <c r="H9">
-        <v>0.7501065158696321</v>
+        <v>0.4961471366010528</v>
       </c>
       <c r="I9">
-        <v>0.673418851984728</v>
+        <v>0.3874940058145881</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3266738463629366</v>
+        <v>0.5187130840222522</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.938167138178528</v>
+        <v>5.404421237725217</v>
       </c>
       <c r="C10">
-        <v>0.3549707569273153</v>
+        <v>0.9154114214082369</v>
       </c>
       <c r="D10">
-        <v>0.02293258260597852</v>
+        <v>0.02763084933856064</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8774881398252603</v>
+        <v>1.109880020172284</v>
       </c>
       <c r="G10">
-        <v>0.7229545887272479</v>
+        <v>1.009591386241041</v>
       </c>
       <c r="H10">
-        <v>0.7501441516080121</v>
+        <v>0.5509207266501761</v>
       </c>
       <c r="I10">
-        <v>0.6652383202846366</v>
+        <v>0.4166298059503433</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3491046155645847</v>
+        <v>0.6159081132419146</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.053425708417819</v>
+        <v>5.80806361805719</v>
       </c>
       <c r="C11">
-        <v>0.3734968017460574</v>
+        <v>0.9753561605261893</v>
       </c>
       <c r="D11">
-        <v>0.02325022523000797</v>
+        <v>0.0285096001595484</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8883712524891649</v>
+        <v>1.185903548112194</v>
       </c>
       <c r="G11">
-        <v>0.7330151340279372</v>
+        <v>1.081986654216479</v>
       </c>
       <c r="H11">
-        <v>0.7507573682163979</v>
+        <v>0.578176505076641</v>
       </c>
       <c r="I11">
-        <v>0.6621711343178021</v>
+        <v>0.4325420596277212</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3595042783678792</v>
+        <v>0.6612900176763787</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.097090023674866</v>
+        <v>5.961712067841802</v>
       </c>
       <c r="C12">
-        <v>0.3804976766184041</v>
+        <v>0.9981494664012871</v>
       </c>
       <c r="D12">
-        <v>0.02337111610850684</v>
+        <v>0.0288482017227949</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8926136946955694</v>
+        <v>1.215386103108457</v>
       </c>
       <c r="G12">
-        <v>0.7369410111286356</v>
+        <v>1.110136331791551</v>
       </c>
       <c r="H12">
-        <v>0.7510757047997458</v>
+        <v>0.5888731496274602</v>
       </c>
       <c r="I12">
-        <v>0.6611043229506421</v>
+        <v>0.4389928288550635</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3634706628824205</v>
+        <v>0.6786673720469594</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.087685332222009</v>
+        <v>5.928583448419886</v>
       </c>
       <c r="C13">
-        <v>0.3789905620072886</v>
+        <v>0.9932360503621851</v>
       </c>
       <c r="D13">
-        <v>0.02334505326293623</v>
+        <v>0.02877500471662486</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8916946020117251</v>
+        <v>1.209004295514987</v>
       </c>
       <c r="G13">
-        <v>0.7360903188263705</v>
+        <v>1.104039652415878</v>
       </c>
       <c r="H13">
-        <v>0.7510033084035115</v>
+        <v>0.5865520692461814</v>
       </c>
       <c r="I13">
-        <v>0.6613298601087436</v>
+        <v>0.4375839009320188</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3626151725686952</v>
+        <v>0.6749158847351424</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.057017635806972</v>
+        <v>5.82068759395105</v>
       </c>
       <c r="C14">
-        <v>0.3740730601821269</v>
+        <v>0.9772293941014993</v>
       </c>
       <c r="D14">
-        <v>0.02326015889158839</v>
+        <v>0.02853733530522007</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8887178456432565</v>
+        <v>1.18831470474683</v>
       </c>
       <c r="G14">
-        <v>0.7333357837137839</v>
+        <v>1.084287293876088</v>
       </c>
       <c r="H14">
-        <v>0.7507818295547821</v>
+        <v>0.5790487606120394</v>
       </c>
       <c r="I14">
-        <v>0.6620814664567902</v>
+        <v>0.4330639861753056</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3598300282805837</v>
+        <v>0.6627156625284556</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.038235147828345</v>
+        <v>5.754706215676663</v>
       </c>
       <c r="C15">
-        <v>0.371059050508876</v>
+        <v>0.9674376072914583</v>
       </c>
       <c r="D15">
-        <v>0.02320823735490052</v>
+        <v>0.02839254094619292</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8869103129431579</v>
+        <v>1.175734600714236</v>
       </c>
       <c r="G15">
-        <v>0.731663713087741</v>
+        <v>1.072286811971026</v>
       </c>
       <c r="H15">
-        <v>0.7506573954502613</v>
+        <v>0.5745028963640664</v>
       </c>
       <c r="I15">
-        <v>0.6625541929556178</v>
+        <v>0.4303521230352061</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.35812773009377</v>
+        <v>0.6552684707356917</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.930637356713873</v>
+        <v>5.37814660281407</v>
       </c>
       <c r="C16">
-        <v>0.3537580109816645</v>
+        <v>0.9115059499256972</v>
       </c>
       <c r="D16">
-        <v>0.02291190928185571</v>
+        <v>0.02757419330463051</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8767938195302634</v>
+        <v>1.105004362667557</v>
       </c>
       <c r="G16">
-        <v>0.722313303222009</v>
+        <v>1.004958244175043</v>
       </c>
       <c r="H16">
-        <v>0.7501161061864536</v>
+        <v>0.5491898171571847</v>
       </c>
       <c r="I16">
-        <v>0.6654519827193184</v>
+        <v>0.4156469606357902</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3484289217697807</v>
+        <v>0.6129678152689735</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.864663602253529</v>
+        <v>5.148418893754808</v>
       </c>
       <c r="C17">
-        <v>0.3431186659603895</v>
+        <v>0.8773403097682149</v>
       </c>
       <c r="D17">
-        <v>0.02273121169369219</v>
+        <v>0.02708170131306886</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8708026551761634</v>
+        <v>1.062763218796704</v>
       </c>
       <c r="G17">
-        <v>0.7167828379252086</v>
+        <v>0.9648703485302548</v>
       </c>
       <c r="H17">
-        <v>0.7499370063046342</v>
+        <v>0.5342867260686717</v>
       </c>
       <c r="I17">
-        <v>0.6673976570735789</v>
+        <v>0.4073358226745256</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3425292370761497</v>
+        <v>0.5873332919331631</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.826730117300087</v>
+        <v>5.016715215692841</v>
       </c>
       <c r="C18">
-        <v>0.3369897976633638</v>
+        <v>0.8577373136665756</v>
       </c>
       <c r="D18">
-        <v>0.02262768284839822</v>
+        <v>0.02680169544720457</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8674354068715786</v>
+        <v>1.03886485227288</v>
       </c>
       <c r="G18">
-        <v>0.7136770974865527</v>
+        <v>0.9422329772604172</v>
       </c>
       <c r="H18">
-        <v>0.7498900757727824</v>
+        <v>0.525932450624822</v>
       </c>
       <c r="I18">
-        <v>0.6685782963074232</v>
+        <v>0.4028028680235067</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3391543171963178</v>
+        <v>0.5726972777091675</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.813888738247442</v>
+        <v>4.972192697336425</v>
       </c>
       <c r="C19">
-        <v>0.3349130590328571</v>
+        <v>0.8511078302395276</v>
       </c>
       <c r="D19">
-        <v>0.02259269937539798</v>
+        <v>0.02670742871698906</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8663088054202177</v>
+        <v>1.030839297935643</v>
       </c>
       <c r="G19">
-        <v>0.7126384349895147</v>
+        <v>0.9346380655683078</v>
       </c>
       <c r="H19">
-        <v>0.7498838058235862</v>
+        <v>0.5231400802295383</v>
       </c>
       <c r="I19">
-        <v>0.6689885916831031</v>
+        <v>0.4013093406222339</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3380147883258928</v>
+        <v>0.5677596706663479</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.871685297213503</v>
+        <v>5.172828446806761</v>
       </c>
       <c r="C20">
-        <v>0.3442522162933699</v>
+        <v>0.8809721894764095</v>
       </c>
       <c r="D20">
-        <v>0.02275040555654684</v>
+        <v>0.02713378499754526</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8714322719904857</v>
+        <v>1.067218163419255</v>
       </c>
       <c r="G20">
-        <v>0.717363770554428</v>
+        <v>0.9690937053905202</v>
       </c>
       <c r="H20">
-        <v>0.7499502644904652</v>
+        <v>0.5358503953785174</v>
       </c>
       <c r="I20">
-        <v>0.667184163391461</v>
+        <v>0.4081946565313146</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3431553611601288</v>
+        <v>0.590050755012868</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.066024991527968</v>
+        <v>5.852356476828788</v>
       </c>
       <c r="C21">
-        <v>0.3755178454567272</v>
+        <v>0.9819282443034467</v>
       </c>
       <c r="D21">
-        <v>0.02328507803797919</v>
+        <v>0.02860697944204915</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8895888933704299</v>
+        <v>1.194372233304591</v>
       </c>
       <c r="G21">
-        <v>0.7341416957670646</v>
+        <v>1.090068368151634</v>
       </c>
       <c r="H21">
-        <v>0.7508445426103663</v>
+        <v>0.5812421416943039</v>
       </c>
       <c r="I21">
-        <v>0.6618581275132556</v>
+        <v>0.4343796923899887</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3606473249276547</v>
+        <v>0.6662937405344138</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.193143922909371</v>
+        <v>6.301187447742109</v>
       </c>
       <c r="C22">
-        <v>0.3958669407365392</v>
+        <v>1.048463942352299</v>
       </c>
       <c r="D22">
-        <v>0.02363804865345998</v>
+        <v>0.02960426256117188</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9021624189332726</v>
+        <v>1.281563127036051</v>
       </c>
       <c r="G22">
-        <v>0.7457846708521458</v>
+        <v>1.17346337843523</v>
       </c>
       <c r="H22">
-        <v>0.7519311959102595</v>
+        <v>0.6131180441340405</v>
       </c>
       <c r="I22">
-        <v>0.6589293143982289</v>
+        <v>0.4539944222628449</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3722440924697707</v>
+        <v>0.7172564520221556</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.125288771044154</v>
+        <v>6.061159931732789</v>
       </c>
       <c r="C23">
-        <v>0.3850140576483057</v>
+        <v>1.012895280508815</v>
       </c>
       <c r="D23">
-        <v>0.02344934143415855</v>
+        <v>0.02906855594850555</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8953866888350035</v>
+        <v>1.234625413681314</v>
       </c>
       <c r="G23">
-        <v>0.739508221813594</v>
+        <v>1.128527193023757</v>
       </c>
       <c r="H23">
-        <v>0.7513051433037106</v>
+        <v>0.5958890497221603</v>
       </c>
       <c r="I23">
-        <v>0.6604417667273808</v>
+        <v>0.4432814368828701</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3660395694150509</v>
+        <v>0.689944266980703</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.868510802213621</v>
+        <v>5.16179174544726</v>
       </c>
       <c r="C24">
-        <v>0.3437397760767453</v>
+        <v>0.8793300956378403</v>
       </c>
       <c r="D24">
-        <v>0.02274172689926601</v>
+        <v>0.02711022825819853</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8711473819789717</v>
+        <v>1.065202884540568</v>
       </c>
       <c r="G24">
-        <v>0.7171009011277789</v>
+        <v>0.9671830559493912</v>
       </c>
       <c r="H24">
-        <v>0.7499440959463755</v>
+        <v>0.5351427977309129</v>
       </c>
       <c r="I24">
-        <v>0.6672804906655045</v>
+        <v>0.4078056170976936</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3428722378701394</v>
+        <v>0.588821875256258</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.592030339315158</v>
+        <v>4.207687873361238</v>
       </c>
       <c r="C25">
-        <v>0.2988600037775768</v>
+        <v>0.7370425940959251</v>
       </c>
       <c r="D25">
-        <v>0.02199392076740736</v>
+        <v>0.02512030086725403</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8480068078429781</v>
+        <v>0.8974012757643806</v>
       </c>
       <c r="G25">
-        <v>0.6958027524671877</v>
+        <v>0.808936814822161</v>
       </c>
       <c r="H25">
-        <v>0.7506184660874453</v>
+        <v>0.4778112724285819</v>
       </c>
       <c r="I25">
-        <v>0.6770074897044509</v>
+        <v>0.3788593704968761</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3185863503169202</v>
+        <v>0.4838061113826626</v>
       </c>
       <c r="M25">
         <v>0</v>
